--- a/biology/Botanique/Sium_suave/Sium_suave.xlsx
+++ b/biology/Botanique/Sium_suave/Sium_suave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sium suave, en français la Berle douce, est une espèce de plantes du genre Sium, dans la famille des Apiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sium suave a été décrite pour la première fois en 1788[3] par le botaniste américain Thomas Walter (1740-1789)[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sium suave a été décrite pour la première fois en 1788 par le botaniste américain Thomas Walter (1740-1789),.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Berle douce est une plante herbacée vivace haute d'environ 1 m, qui croît isolée ou en colonies. La tige creuse et côtelée est dressé, très large à la base environ 2 cm, à parois minces, sans poils. Les feuilles sont alternes, composées et souples.
 </t>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La racine est comestible, mais la plante présente un risque de confusion avec la ciguë maculée (Conium maculatum) qui est dangereusement toxique[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La racine est comestible, mais la plante présente un risque de confusion avec la ciguë maculée (Conium maculatum) qui est dangereusement toxique.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Thomas Walter, Flora caroliniana, secundum systema vegetabilium perillustris Linnaei digesta; characteres essentiales naturalesve et differentias veras exhibens, 1788, 263 p. (DOI 10.5962/BHL.TITLE.9458, lire en ligne)</t>
         </is>
